--- a/estimation/CommResourcebreakdown.v3.xlsx
+++ b/estimation/CommResourcebreakdown.v3.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hiring" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="130407"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -128,13 +128,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -293,7 +289,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -303,10 +299,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,7 +1043,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1061,7 +1056,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1751,7 +1746,7 @@
         <v>860</v>
       </c>
       <c r="E32" s="32">
-        <f t="shared" ref="B32:G32" si="3">SUM(E25:E30)</f>
+        <f t="shared" ref="E32:G32" si="3">SUM(E25:E30)</f>
         <v>700</v>
       </c>
       <c r="F32" s="32">
@@ -1982,7 +1977,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
